--- a/SESAddSuppression.xlsx
+++ b/SESAddSuppression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845FCD63-E92B-4E31-829E-7C33C599BB10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C5EBCA-C333-442E-AC46-23519B4B004E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/SESAddSuppression.xlsx
+++ b/SESAddSuppression.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -68,42 +68,6 @@
   </x:si>
   <x:si>
     <x:t>New Test Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Remove the suppression which is already applied</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to remove the suppression</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_7.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Add Contract Suppression using Manage Suppression</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able add contract Suppression</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_8.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Remove Contract Suppression</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to remove contract suppression</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -187,8 +151,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K5" totalsRowShown="0">
-  <x:autoFilter ref="A1:K5"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K2" totalsRowShown="0">
+  <x:autoFilter ref="A1:K2"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -494,7 +458,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K5"/>
+  <x:dimension ref="A1:K2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -507,7 +471,7 @@
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="50.130625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="48.700625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="42.700625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -572,87 +536,6 @@
       </x:c>
       <x:c r="J2" s="0" t="s"/>
       <x:c r="K2" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:11">
-      <x:c r="A3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s"/>
-      <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
-      <x:c r="F3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s"/>
-      <x:c r="K3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:11">
-      <x:c r="A4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s"/>
-      <x:c r="K4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:11">
-      <x:c r="A5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s"/>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
-      <x:c r="F5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s"/>
-      <x:c r="K5" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
